--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyTemp.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyTemp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Norwegian base profile for Norwegian Vital Signs Observation Body Temperature.</t>
+    <t>Norwegian base profile for Norwegian Vital Signs Observation Body Temperature. To be used for recording the measured body temperatur of an individual at any point in time.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1317,6 +1317,12 @@
   </si>
   <si>
     <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Body temperature (°C), measured as a quantity.</t>
+  </si>
+  <si>
+    <t>The measured temperature of a person's body, expressed as a quantitative value. This can be obtained from various sites such as oral, rectal, axillary, tympanic, or temporal, using a thermometer. The value is typically recorded in degrees Celsius (°C) but may also be expressed in degrees Fahrenheit (°F).</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -7515,10 +7521,10 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>82</v>
@@ -7757,10 +7763,10 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>82</v>
@@ -9325,10 +9331,10 @@
         <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>408</v>
@@ -9418,10 +9424,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9536,10 +9542,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9656,10 +9662,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9682,19 +9688,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9743,7 +9749,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9764,10 +9770,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9778,10 +9784,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9807,22 +9813,22 @@
         <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>82</v>
@@ -9846,10 +9852,10 @@
         <v>189</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9867,7 +9873,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9888,10 +9894,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9902,10 +9908,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9931,16 +9937,16 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9989,7 +9995,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10010,10 +10016,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10024,10 +10030,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10053,23 +10059,23 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10111,7 +10117,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10120,7 +10126,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10132,10 +10138,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10146,10 +10152,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10175,16 +10181,16 @@
         <v>116</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10212,10 +10218,10 @@
         <v>189</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10233,7 +10239,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10254,10 +10260,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10268,10 +10274,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10297,16 +10303,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10334,10 +10340,10 @@
         <v>296</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10355,7 +10361,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10364,7 +10370,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10379,7 +10385,7 @@
         <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10390,14 +10396,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10419,16 +10425,16 @@
         <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10456,10 +10462,10 @@
         <v>296</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10477,7 +10483,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10495,27 +10501,27 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10538,19 +10544,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10599,7 +10605,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10620,10 +10626,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10634,10 +10640,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10663,13 +10669,13 @@
         <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10695,13 +10701,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10719,7 +10725,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10737,27 +10743,27 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10783,16 +10789,16 @@
         <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10817,13 +10823,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10841,7 +10847,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10862,10 +10868,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10876,10 +10882,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10902,16 +10908,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10961,7 +10967,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10979,27 +10985,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11022,16 +11028,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11081,7 +11087,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11099,27 +11105,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11142,19 +11148,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11203,7 +11209,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11215,7 +11221,7 @@
         <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11224,10 +11230,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11238,10 +11244,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11356,10 +11362,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11476,14 +11482,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11505,10 +11511,10 @@
         <v>141</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>144</v>
@@ -11563,7 +11569,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11598,10 +11604,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11624,16 +11630,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11683,7 +11689,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11692,10 +11698,10 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11704,10 +11710,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11718,10 +11724,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11744,16 +11750,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11803,31 +11809,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11838,10 +11844,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11867,16 +11873,16 @@
         <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11904,10 +11910,10 @@
         <v>120</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11925,7 +11931,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11943,13 +11949,13 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11960,10 +11966,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11989,16 +11995,16 @@
         <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12023,13 +12029,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12047,7 +12053,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12065,13 +12071,13 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12082,10 +12088,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12108,19 +12114,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12169,7 +12175,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12181,7 +12187,7 @@
         <v>105</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12190,10 +12196,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12204,10 +12210,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12233,10 +12239,10 @@
         <v>213</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>257</v>
@@ -12289,7 +12295,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12310,10 +12316,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12324,10 +12330,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12350,16 +12356,16 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12409,7 +12415,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12430,10 +12436,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12444,10 +12450,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12470,16 +12476,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12529,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12550,10 +12556,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12564,10 +12570,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12590,19 +12596,19 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12651,7 +12657,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12663,7 +12669,7 @@
         <v>105</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12672,10 +12678,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12686,10 +12692,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12804,10 +12810,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12924,14 +12930,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12953,10 +12959,10 @@
         <v>141</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>144</v>
@@ -13011,7 +13017,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13046,10 +13052,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13075,16 +13081,16 @@
         <v>198</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13133,7 +13139,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>93</v>
@@ -13151,7 +13157,7 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>301</v>
@@ -13168,10 +13174,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13194,16 +13200,16 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>409</v>
@@ -13234,10 +13240,10 @@
         <v>296</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13255,7 +13261,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13264,7 +13270,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>106</v>
@@ -13273,7 +13279,7 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>413</v>
@@ -13290,10 +13296,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13319,16 +13325,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13356,10 +13362,10 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13377,7 +13383,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13386,7 +13392,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13401,7 +13407,7 @@
         <v>107</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13412,14 +13418,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13441,16 +13447,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13478,10 +13484,10 @@
         <v>296</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13499,7 +13505,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13517,27 +13523,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13563,16 +13569,16 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13621,7 +13627,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13642,10 +13648,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyTemp.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyTemp.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NO VitalSigns Observation - Body Temperature</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Temperature</t>
   </si>
   <si>
     <t>Status</t>
